--- a/result/reply18_18.xlsx
+++ b/result/reply18_18.xlsx
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -7740,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -8246,13 +8246,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" t="n">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
@@ -11337,10 +11337,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -11620,10 +11620,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX37" t="n">
         <v>0</v>
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="BA37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB37" t="n">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX38" t="n">
         <v>0</v>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="BA38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" t="n">
         <v>0</v>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ46" t="n">
         <v>0</v>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -15096,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -15367,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -15409,10 +15409,10 @@
         <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -18136,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59" t="n">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL60" t="n">
         <v>0</v>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB60" t="n">
         <v>0</v>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="AV64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" t="n">
         <v>0</v>
@@ -20625,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66" t="n">
         <v>0</v>
@@ -20851,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -21447,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -21775,10 +21775,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -22211,7 +22211,7 @@
         <v>0</v>
       </c>
       <c r="BA71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB71" t="n">
         <v>0</v>
@@ -22738,10 +22738,10 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -23304,7 +23304,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -23352,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
@@ -23364,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" t="n">
         <v>0</v>
@@ -23406,7 +23406,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ75" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="BA75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB75" t="n">
         <v>0</v>
@@ -23596,7 +23596,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="BA76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB76" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -25892,7 +25892,7 @@
         <v>0</v>
       </c>
       <c r="AZ83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA83" t="n">
         <v>0</v>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -26455,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ85" t="n">
         <v>0</v>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="AV85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW85" t="n">
         <v>0</v>
@@ -27313,7 +27313,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -27942,7 +27942,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
@@ -28249,7 +28249,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91" t="n">
         <v>0</v>
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -29519,7 +29519,7 @@
         <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH95" t="n">
         <v>0</v>
@@ -29582,7 +29582,7 @@
         <v>0</v>
       </c>
       <c r="BB95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC95" t="n">
         <v>0</v>
@@ -30982,7 +30982,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -31337,7 +31337,7 @@
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z101" t="n">
         <v>0</v>
